--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_7.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_7.xlsx
@@ -483,122 +483,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2225274725274725</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'G', 'C']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'A']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(80.956, 85.176)]</t>
+          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(48.617346, 59.937074)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1963636363636364</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[(63.6, 66.04)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[(105.425056, 115.003287)]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2863636363636364</v>
+        <v>0.2125874125874126</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(19.78, 23.12)]</t>
+          <t>[(48.8, 60.04)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
+          <t>[(0.3, 3.64)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -606,35 +606,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_51</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1414473684210526</v>
+        <v>0.3342175066312997</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(25.687641, 32.084739)]</t>
+          <t>[(36.4, 55.36)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(21.577709, 29.878843)]</t>
+          <t>[(1.14, 9.88)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -643,72 +643,80 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1645161290322581</v>
+        <v>0.1641025641025641</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(37.738798, 43.706326)]</t>
+          <t>[(40.46, 43.62)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(10.752669, 17.463236)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[(16.72, 26.46)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1507352941176471</v>
+        <v>0.5369318181818181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['A', 'D/5', 'A', 'E/4', 'D/5', 'A', 'D']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E'], ['A', 'E', 'A']]</t>
+          <t>[['G', 'C', 'G', 'D', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(11.26, 13.16), (10.46, 12.58)]</t>
+          <t>[(17.913, 30.076)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(55.374892, 60.67956), (0.421247, 3.953211)]</t>
+          <t>[(8.158789, 28.461467)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -717,77 +725,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1916666666666667</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.16, 15.08)]</t>
+          <t>[(62.5, 72.76)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(254.26, 257.98)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[(19.78, 25.82)]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3314393939393939</v>
+        <v>0.07964046822742475</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[(5.68, 9.64)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.38, 8.9)]</t>
+          <t>[(55.46, 59.63)]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -795,80 +811,76 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1136044880785414</v>
+        <v>0.05274725274725275</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['A:min7/C', 'D:7', 'G:maj', 'D:7/C']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['G:min7', 'C:7', 'F', 'C:7']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[(65.76, 75.0)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.3, 3.34)]</t>
+          <t>[(22.68, 27.0)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2392241379310345</v>
+        <v>0.05595439189189189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['C:7', 'C:7', 'F:7', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['D:7', 'D:7', 'G:7', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(83.2, 91.14)]</t>
+          <t>[(26.8, 31.57)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.14, 14.34)]</t>
+          <t>[(7.47, 12.62)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -877,35 +889,35 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>jaah_5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1848837209302326</v>
+        <v>0.1391058667109855</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A:7', 'E:7', 'A:7'], ['A:7', 'D:7', 'A:7']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['Bb:7', 'F:7', 'Bb:7'], ['Bb:7', 'Eb:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(7.284457, 20.438561)]</t>
+          <t>[(11.993129, 22.326009), (1.834399, 15.441292)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(15.027029, 21.737596)]</t>
+          <t>[(22.23, 25.41), (11.55, 14.78)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -914,158 +926,150 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2375</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.26, 7.82)]</t>
+          <t>[(1.54, 3.58)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
+          <t>[(19.44, 28.3)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>isophonics_112</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1064102564102564</v>
+        <v>0.08437500000000001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['D/5', 'A', 'D/5'], ['A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[(21.722199, 26.760929), (65.81034, 71.679931)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[(1.922018, 6.206099), (0.421247, 4.824512)]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_151</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0945054945054945</v>
+        <v>0.2875</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(59.4, 67.94), (64.22, 69.76), (76.56, 87.04), (9.14, 16.64)]</t>
+          <t>[(60.04, 67.08)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(14.48, 22.82), (57.6, 60.72), (59.5, 65.04), (60.72, 68.12)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(23.586235, 28.578526)]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2767857142857143</v>
+        <v>0.2965116279069767</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj'], ['F#:7', 'B:maj', 'B:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.32, 9.54), (30.52, 40.64)]</t>
+          <t>[(55.58, 66.2)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(66.92, 68.18), (67.5, 70.3)]</t>
+          <t>[(7.284457, 22.098788)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1074,45 +1078,41 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_22</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.07023809523809524</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['F:(1,5,9)', 'C', 'Bb']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['F#:sus4', 'F#', 'E']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[(118.453, 123.653)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(128.76, 134.6)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[(31.005011, 35.323922)]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
         </is>
       </c>
     </row>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_7.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[('0:01:48.280000', '0:02:00.520000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:37.540000', '0:00:45.380000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3296703296703297</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1627358490566038</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D/2', 'D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(63.6, 66.04)]</t>
+          <t>[['D', 'D', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(105.425056, 115.003287)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:56.753520', '0:01:13.909779')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
-        </is>
+          <t>isophonics_49</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05833333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>[['A:min', 'G/3', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(48.8, 60.04)]</t>
+          <t>[['Bb:min', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.3, 3.64)]</t>
+          <t>[('0:00:23.936132', '0:00:26.885065')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:19.778163', '0:00:22.552947')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3342175066312997</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1821946169772257</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(36.4, 55.36)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.14, 9.88)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:16.800000', '0:00:20.080000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:12.640000', '0:01:23.380000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04807692307692308</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[('0:01:10.060000', '0:01:20.280000'), ('0:00:41.580000', '0:00:43.480000'), ('0:01:30.780000', '0:01:41.320000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:03:46.620000', '0:03:50.460000'), ('0:00:20.920000', '0:00:24.020000'), ('0:00:07.300000', '0:00:10.300000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5369318181818181</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D/5', 'A', 'E/4', 'D/5', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4851752021563342</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D', 'C', 'G', 'C']]</t>
+          <t>[['D/5', 'A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(17.913, 30.076)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.158789, 28.461467)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:31.898979', '0:00:36.206281')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:04.605000', '0:00:21.095000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5428571428571429</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[['D', 'G/5', 'D', 'G/5']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:20.432000', '0:00:24.332000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07964046822742475</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.68, 9.64)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(55.46, 59.63)]</t>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_67</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05274725274725275</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj', 'D:7/C']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F', 'C:7']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(65.76, 75.0)]</t>
+          <t>[['C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(22.68, 27.0)]</t>
+          <t>[('0:01:14.180000', '0:01:27.700000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:02.020000', '0:00:15.900000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_77</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05595439189189189</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'D:7', 'G:7', 'G:7', 'C']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(26.8, 31.57)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.47, 12.62)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:44.160000', '0:00:58.080000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_5</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1391058667109855</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:7', 'E:7', 'A:7'], ['A:7', 'D:7', 'A:7']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'F:7', 'Bb:7'], ['Bb:7', 'Eb:7', 'Bb:7']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(11.993129, 22.326009), (1.834399, 15.441292)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(22.23, 25.41), (11.55, 14.78)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.54, 3.58)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(19.44, 28.3)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.08437500000000001</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5'], ['A', 'D/5', 'A']]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(21.722199, 26.760929), (65.81034, 71.679931)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.922018, 6.206099), (0.421247, 4.824512)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2875</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(60.04, 67.08)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.586235, 28.578526)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2965116279069767</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(55.58, 66.2)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.284457, 22.098788)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_76</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07023809523809524</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:(1,5,9)', 'C', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:sus4', 'F#', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(118.453, 123.653)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(31.005011, 35.323922)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
